--- a/eagle/DIGIKEY.xlsx
+++ b/eagle/DIGIKEY.xlsx
@@ -20,7 +20,19 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
+  <si>
+    <t xml:space="preserve">1649-1083-1-ND</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SHT31-DIS-P2.5KS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">296-29034-1-ND</t>
+  </si>
+  <si>
+    <t xml:space="preserve">INA226AIDGSR</t>
+  </si>
   <si>
     <t xml:space="preserve">AP63201WU-7DICT-ND</t>
   </si>
@@ -28,28 +40,34 @@
     <t xml:space="preserve">AP63201WU-7</t>
   </si>
   <si>
+    <t xml:space="preserve">MCP1700T-3602E/TTCT-ND</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MCP1700T-3602E/TT</t>
+  </si>
+  <si>
     <t xml:space="preserve">516-2581-1-ND</t>
   </si>
   <si>
     <t xml:space="preserve">HCPL-181-00DE</t>
   </si>
   <si>
-    <t xml:space="preserve">10</t>
-  </si>
-  <si>
-    <t xml:space="preserve">296-29034-1-ND</t>
-  </si>
-  <si>
-    <t xml:space="preserve">INA226AIDGSR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">732-5005-ND</t>
-  </si>
-  <si>
-    <t xml:space="preserve">151031SS04000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4</t>
+    <t xml:space="preserve">609-3827-ND</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OQ1032510000G</t>
+  </si>
+  <si>
+    <t xml:space="preserve">609-3805-ND</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TJ1031530000G</t>
+  </si>
+  <si>
+    <t xml:space="preserve">609-4613-1-ND</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10118192-0001LF</t>
   </si>
   <si>
     <t xml:space="preserve">450-1658-ND</t>
@@ -58,24 +76,6 @@
     <t xml:space="preserve">1-1825027-1</t>
   </si>
   <si>
-    <t xml:space="preserve">609-4613-1-ND</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10118192-0001LF</t>
-  </si>
-  <si>
-    <t xml:space="preserve">609-3827-ND</t>
-  </si>
-  <si>
-    <t xml:space="preserve">OQ1032510000G</t>
-  </si>
-  <si>
-    <t xml:space="preserve">609-3805-ND</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TJ1031530000G</t>
-  </si>
-  <si>
     <t xml:space="preserve">308-1339-1-ND</t>
   </si>
   <si>
@@ -94,37 +94,34 @@
     <t xml:space="preserve">MMZ2012Y152BT000</t>
   </si>
   <si>
+    <t xml:space="preserve">PCE4593CT-ND</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EEE-1EA101AP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1276-3047-1-ND</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CL31A226KAHNNNE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">399-4925-1-ND</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C0805C106K8PACTU</t>
+  </si>
+  <si>
     <t xml:space="preserve">587-5869-1-ND</t>
   </si>
   <si>
     <t xml:space="preserve">JMK107ABJ106MA-T</t>
   </si>
   <si>
-    <t xml:space="preserve">30</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1276-3047-1-ND</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CL31A226KAHNNNE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PCE4593CT-ND</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EEE-1EA101AP</t>
-  </si>
-  <si>
     <t xml:space="preserve">311-10.0KHRCT-ND</t>
   </si>
   <si>
     <t xml:space="preserve">RC0603FR-0710KL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">100</t>
   </si>
 </sst>
 </file>
@@ -200,12 +197,16 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -226,7 +227,7 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C15"/>
+  <dimension ref="A1:C17"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
@@ -236,9 +237,8 @@
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="24.31"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="22.36"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="7.49"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="11.52"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="5" style="0" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="2" width="5.28"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="4" style="0" width="11.52"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -248,8 +248,8 @@
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="n">
-        <v>4</v>
+      <c r="C1" s="2" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -259,151 +259,173 @@
       <c r="B2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="2" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>4</v>
+      <c r="C3" s="2" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>9</v>
+      <c r="C4" s="2" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C5" s="1" t="s">
         <v>9</v>
+      </c>
+      <c r="C5" s="2" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
+      </c>
+      <c r="C6" s="2" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>9</v>
+        <v>13</v>
+      </c>
+      <c r="C7" s="2" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>9</v>
+        <v>15</v>
+      </c>
+      <c r="C8" s="2" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>9</v>
+        <v>17</v>
+      </c>
+      <c r="C9" s="2" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>9</v>
+        <v>19</v>
+      </c>
+      <c r="C10" s="2" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>4</v>
+        <v>21</v>
+      </c>
+      <c r="C11" s="2" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>26</v>
+        <v>23</v>
+      </c>
+      <c r="C12" s="2" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>29</v>
+        <v>25</v>
+      </c>
+      <c r="C13" s="2" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>9</v>
+        <v>27</v>
+      </c>
+      <c r="C14" s="2" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C15" s="2" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C16" s="2" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="B15" s="1" t="s">
+      <c r="B17" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="C15" s="1" t="s">
-        <v>34</v>
+      <c r="C17" s="2" t="n">
+        <v>100</v>
       </c>
     </row>
   </sheetData>
